--- a/Query1.xlsx
+++ b/Query1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjmoi638\Documents\GitHub\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjmoi638\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Query1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Field1</t>
   </si>
   <si>
     <t>Key #</t>
+  </si>
+  <si>
+    <t>dsa</t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +464,7 @@
     <col min="1" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,77 +472,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>9281635</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>9281796</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>9281801</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>9281812</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>9281823</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>9281825</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>9281828</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9281834</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9281829</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9281738</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9281811</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9281817</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9281222</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>9281435</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9281741</v>
       </c>

--- a/Query1.xlsx
+++ b/Query1.xlsx
@@ -19,12 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Field1</t>
   </si>
   <si>
     <t>Key #</t>
+  </si>
+  <si>
+    <t>ddsf</t>
+  </si>
+  <si>
+    <t>sadsada</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +467,7 @@
     <col min="1" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,107 +475,113 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>9281635</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>9281796</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>9281801</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>9281812</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>9281823</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>9281825</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>9281828</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9281834</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9281829</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9281738</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9281811</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9281817</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9281222</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>9281435</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9281741</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>9281795</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>9281358</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>9281762</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>9281833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>9281831</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1</v>
       </c>
